--- a/biology/Microbiologie/European_Journal_of_Protistology/European_Journal_of_Protistology.xlsx
+++ b/biology/Microbiologie/European_Journal_of_Protistology/European_Journal_of_Protistology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-European Journal of Protistology est journal scientifique couvrant l'ensemble du champ de la protistologie, que ce soit du point du vue du développement  des organismes, de leur écologie et de leur biologie moléculaire. Le journal est publié par Elsevier[1]. C'est le journal officiel journal de la Federation of European Protistological Societies[2].
+European Journal of Protistology est journal scientifique couvrant l'ensemble du champ de la protistologie, que ce soit du point du vue du développement  des organismes, de leur écologie et de leur biologie moléculaire. Le journal est publié par Elsevier. C'est le journal officiel journal de la Federation of European Protistological Societies.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le journal est indexé par exemple dans[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal est indexé par exemple dans:
 Web of Science
 Elsevier BIOBASE
-Selon Journal Citation Reports, le journal a facteur d'impact de 3,471 en 2021[4],[5].
+Selon Journal Citation Reports, le journal a facteur d'impact de 3,471 en 2021,.
 </t>
         </is>
       </c>
